--- a/history.xlsx
+++ b/history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swislar/Desktop/IT1244/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26391463-4BD9-114F-BE4C-8BEC156E51E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C61A88-439B-1449-AAB1-1833FB8FCCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{0721422C-FE5C-8F44-82A3-21048F803797}"/>
+    <workbookView xWindow="6380" yWindow="1900" windowWidth="28040" windowHeight="17440" xr2:uid="{0721422C-FE5C-8F44-82A3-21048F803797}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,13 +102,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -173,7 +166,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,7 +503,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50:G50"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2303,7 +2295,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="1">
         <v>0</v>
       </c>
       <c r="B48" s="4">
@@ -2341,7 +2333,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="1">
         <v>1</v>
       </c>
       <c r="B49" s="4">
@@ -2379,7 +2371,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="1">
         <v>2</v>
       </c>
       <c r="B50" s="4">
@@ -2417,7 +2409,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="1">
         <v>3</v>
       </c>
       <c r="B51" s="4">
@@ -2455,7 +2447,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="1">
         <v>4</v>
       </c>
       <c r="B52" s="4">
@@ -2493,7 +2485,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="1">
         <v>5</v>
       </c>
       <c r="B53" s="4">
@@ -2531,7 +2523,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="1">
         <v>6</v>
       </c>
       <c r="B54" s="4">
